--- a/image/clinicalimpression.xlsx
+++ b/image/clinicalimpression.xlsx
@@ -931,45 +931,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.42578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.80859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="82.7890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="35.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.18359375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.2109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/clinicalimpression.xlsx
+++ b/image/clinicalimpression.xlsx
@@ -372,7 +372,7 @@
     <t>ClinicalImpression.status</t>
   </si>
   <si>
-    <t>draft | completed | entered-in-error</t>
+    <t>in-progress | completed | entered-in-error</t>
   </si>
   <si>
     <t>Identifies the workflow status of the assessment.</t>

--- a/image/clinicalimpression.xlsx
+++ b/image/clinicalimpression.xlsx
@@ -372,7 +372,7 @@
     <t>ClinicalImpression.status</t>
   </si>
   <si>
-    <t>draft | completed | entered-in-error</t>
+    <t>in-progress | completed | entered-in-error</t>
   </si>
   <si>
     <t>Identifies the workflow status of the assessment.</t>
@@ -931,45 +931,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.42578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.80859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="82.7890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="35.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.18359375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.2109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/clinicalimpression.xlsx
+++ b/image/clinicalimpression.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="247">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -460,10 +460,6 @@
     <t>ClinicalImpression.description</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Why/how the assessment was performed</t>
   </si>
   <si>
@@ -712,7 +708,7 @@
     <t>ClinicalImpression.finding.itemReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|Media)
+    <t xml:space="preserve">Reference(Condition|Observation|DocumentReference)
 </t>
   </si>
   <si>
@@ -931,45 +927,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="82.7890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.42578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="83.80859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="36.2109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.1328125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.18359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2559,13 +2555,13 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2645,7 +2641,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2668,17 +2664,17 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2727,7 +2723,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>50</v>
@@ -2742,13 +2738,13 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2756,7 +2752,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2779,16 +2775,16 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2838,7 +2834,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2853,13 +2849,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2867,7 +2863,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2890,16 +2886,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2949,7 +2945,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2964,13 +2960,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -2978,7 +2974,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3001,13 +2997,13 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3058,7 +3054,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3079,7 +3075,7 @@
         <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3087,7 +3083,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3110,13 +3106,13 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3167,7 +3163,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3182,13 +3178,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3196,7 +3192,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3219,16 +3215,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3278,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3307,7 +3303,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3330,16 +3326,16 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3389,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3407,10 +3403,10 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3418,7 +3414,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3444,10 +3440,10 @@
         <v>63</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3498,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3527,7 +3523,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3550,13 +3546,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3607,7 +3603,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3625,7 +3621,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3636,7 +3632,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3659,13 +3655,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3716,7 +3712,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3728,7 +3724,7 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
@@ -3745,7 +3741,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3768,13 +3764,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3825,7 +3821,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3849,12 +3845,12 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3883,7 +3879,7 @@
         <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>98</v>
@@ -3936,7 +3932,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3960,16 +3956,16 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3991,10 +3987,10 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>98</v>
@@ -4049,7 +4045,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4078,7 +4074,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4104,10 +4100,10 @@
         <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4137,11 +4133,11 @@
         <v>130</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4158,7 +4154,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4176,7 +4172,7 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4187,7 +4183,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4210,13 +4206,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4267,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4285,7 +4281,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4296,7 +4292,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4319,13 +4315,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4376,7 +4372,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4405,7 +4401,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4431,10 +4427,10 @@
         <v>126</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4464,11 +4460,11 @@
         <v>130</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4503,7 +4499,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4514,7 +4510,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4537,13 +4533,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4594,7 +4590,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4623,7 +4619,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4646,13 +4642,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4703,7 +4699,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4732,7 +4728,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4755,16 +4751,16 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4814,7 +4810,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4829,7 +4825,7 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
